--- a/excel/contrcat_10504.xlsx
+++ b/excel/contrcat_10504.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="就業条件明示書" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">就業条件明示書!$A$1:$AH$122</definedName>
     <definedName name="性別">[1]Sheet1!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>就業条件明示書</t>
     <rPh sb="0" eb="2">
@@ -772,13 +772,24 @@
 派遣法施行令第４条第一項第一号</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -857,7 +868,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -945,6 +956,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -953,9 +975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,20 +1037,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1751,12 +1773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AZ124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A100" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A88" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1776,364 +1798,366 @@
     <col min="35" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-    </row>
-    <row r="2" spans="1:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="AA1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="25"/>
+    </row>
+    <row r="2" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
     </row>
     <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
     </row>
     <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="1:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="1:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="1:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
       <c r="AA10" s="31" t="s">
         <v>6</v>
       </c>
@@ -2145,79 +2169,79 @@
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
     </row>
-    <row r="11" spans="1:40" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
+    <row r="11" spans="1:40" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
@@ -2844,17 +2868,17 @@
       <c r="U29" s="53"/>
       <c r="V29" s="53"/>
       <c r="W29" s="53"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="14"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:35" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="35"/>
@@ -2880,17 +2904,17 @@
       <c r="U30" s="55"/>
       <c r="V30" s="55"/>
       <c r="W30" s="55"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="16"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="15"/>
     </row>
     <row r="31" spans="1:35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
@@ -2916,17 +2940,17 @@
       <c r="U31" s="60"/>
       <c r="V31" s="60"/>
       <c r="W31" s="60"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="18"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32" t="s">
@@ -2954,19 +2978,19 @@
       <c r="S32" s="77"/>
       <c r="T32" s="77"/>
       <c r="U32" s="77"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="14"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="35"/>
@@ -2990,19 +3014,19 @@
       <c r="S33" s="78"/>
       <c r="T33" s="78"/>
       <c r="U33" s="78"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="16"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="15"/>
     </row>
     <row r="34" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38"/>
@@ -3026,19 +3050,19 @@
       <c r="S34" s="79"/>
       <c r="T34" s="79"/>
       <c r="U34" s="79"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="18"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="17"/>
     </row>
     <row r="35" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
@@ -3856,7 +3880,7 @@
         <v>30</v>
       </c>
       <c r="AG56" s="89"/>
-      <c r="AH56" s="14"/>
+      <c r="AH56" s="13"/>
     </row>
     <row r="57" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="35"/>
@@ -3892,7 +3916,7 @@
       <c r="AE57" s="69"/>
       <c r="AF57" s="91"/>
       <c r="AG57" s="91"/>
-      <c r="AH57" s="16"/>
+      <c r="AH57" s="15"/>
     </row>
     <row r="58" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="38"/>
@@ -3928,7 +3952,7 @@
       <c r="AE58" s="70"/>
       <c r="AF58" s="93"/>
       <c r="AG58" s="93"/>
-      <c r="AH58" s="18"/>
+      <c r="AH58" s="17"/>
     </row>
     <row r="59" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32" t="s">
@@ -3974,7 +3998,7 @@
         <v>32</v>
       </c>
       <c r="AG59" s="89"/>
-      <c r="AH59" s="14"/>
+      <c r="AH59" s="13"/>
     </row>
     <row r="60" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="35"/>
@@ -4010,7 +4034,7 @@
       <c r="AE60" s="69"/>
       <c r="AF60" s="91"/>
       <c r="AG60" s="91"/>
-      <c r="AH60" s="16"/>
+      <c r="AH60" s="15"/>
     </row>
     <row r="61" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="38"/>
@@ -4046,7 +4070,7 @@
       <c r="AE61" s="70"/>
       <c r="AF61" s="93"/>
       <c r="AG61" s="93"/>
-      <c r="AH61" s="18"/>
+      <c r="AH61" s="17"/>
     </row>
     <row r="62" spans="1:34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="101" t="s">
@@ -4247,30 +4271,30 @@
       </c>
       <c r="I67" s="42"/>
       <c r="J67" s="42"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
-      <c r="AH67" s="20"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="18"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="19"/>
     </row>
     <row r="68" spans="1:52" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="102"/>
@@ -4283,30 +4307,30 @@
       <c r="H68" s="45"/>
       <c r="I68" s="46"/>
       <c r="J68" s="46"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="22"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="21"/>
     </row>
     <row r="69" spans="1:52" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="102"/>
@@ -4512,33 +4536,33 @@
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
       <c r="G73" s="40"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="25"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="23"/>
+      <c r="AE73" s="23"/>
+      <c r="AF73" s="23"/>
+      <c r="AG73" s="23"/>
+      <c r="AH73" s="24"/>
       <c r="AI73" s="110"/>
       <c r="AJ73" s="111"/>
       <c r="AK73" s="111"/>
@@ -6524,15 +6548,15 @@
     <mergeCell ref="H24:I25"/>
     <mergeCell ref="J24:AH25"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="A2:AH2"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="AB5:AH5"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.48" bottom="0.4" header="0.39370078740157483" footer="0.35433070866141736"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.47244094488188981" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
